--- a/ig/version-0.3.0/CodeSystem-eclaire-study-population-code-system.xlsx
+++ b/ig/version-0.3.0/CodeSystem-eclaire-study-population-code-system.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T14:58:12+00:00</t>
+    <t>2024-01-24T16:14:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
